--- a/public/syllabus/1597202710740.xlsx
+++ b/public/syllabus/1597202710740.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecturer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\fyp\public\syllabus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9636"/>
   </bookViews>
   <sheets>
     <sheet name="BTSE1003" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BTSE1003!$B$4:$Q$64</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -230,24 +230,6 @@
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. 1. Introduction to software modeling and analysis
-• How structured analysis approach techniques used in the life cycle 
-- DFD Diagram
-• How object-oriented analysis and design techniques can be used early in the life cycle.
-• How project management and quality control techniques can be applied throughout the life cycle.
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -501,6 +483,14 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introduction to software modeling and analysis
+• How structured analysis approach techniques used in the life cycle 
+- DFD Diagram
+• How object-oriented analysis and design techniques can be used early in the life cycle.
+• How project management and quality control techniques can be applied throughout the life cycle.
+</t>
   </si>
 </sst>
 </file>
@@ -631,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -810,101 +800,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1225,28 +1120,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1265,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,7 +1201,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,6 +1266,43 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1378,58 +1310,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,32 +1369,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,26 +1408,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1550,25 +1417,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,19 +1480,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1634,35 +1498,35 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1694,17 +1558,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1715,20 +1597,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2066,30 +1954,30 @@
   </sheetPr>
   <dimension ref="B2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49:P49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="9" width="10.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="15" width="10.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="3"/>
+    <col min="4" max="9" width="10.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" customWidth="1"/>
+    <col min="11" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2001,7 @@
       <c r="P4" s="47"/>
       <c r="Q4" s="48"/>
     </row>
-    <row r="5" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -2135,7 +2023,7 @@
       <c r="P5" s="47"/>
       <c r="Q5" s="48"/>
     </row>
-    <row r="6" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2047,7 @@
       <c r="P6" s="54"/>
       <c r="Q6" s="55"/>
     </row>
-    <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="51"/>
       <c r="D7" s="56"/>
@@ -2177,7 +2065,7 @@
       <c r="P7" s="57"/>
       <c r="Q7" s="58"/>
     </row>
-    <row r="8" spans="2:17" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
       <c r="C8" s="52"/>
       <c r="D8" s="59"/>
@@ -2195,7 +2083,7 @@
       <c r="P8" s="60"/>
       <c r="Q8" s="61"/>
     </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -2219,19 +2107,19 @@
       <c r="P9" s="47"/>
       <c r="Q9" s="48"/>
     </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="9">
         <v>1</v>
       </c>
@@ -2241,40 +2129,40 @@
       <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-    </row>
-    <row r="11" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+    </row>
+    <row r="11" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="72">
         <f>ROUNDDOWN(Q58,0)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
-    </row>
-    <row r="12" spans="2:17" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+    </row>
+    <row r="12" spans="2:17" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2170,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -2298,7 +2186,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="48"/>
     </row>
-    <row r="13" spans="2:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="45" t="s">
         <v>20</v>
       </c>
@@ -2320,7 +2208,7 @@
       <c r="P13" s="63"/>
       <c r="Q13" s="64"/>
     </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="49"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
@@ -2328,133 +2216,133 @@
       <c r="D14" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="49"/>
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49"/>
       <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="64"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="49"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="82"/>
-    </row>
-    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
+    </row>
+    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="49"/>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88" t="s">
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="88" t="s">
+      <c r="Q19" s="85" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49"/>
-      <c r="C20" s="84"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
@@ -2483,10 +2371,10 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-    </row>
-    <row r="21" spans="2:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+    </row>
+    <row r="21" spans="2:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="49"/>
       <c r="C21" s="12" t="s">
         <v>42</v>
@@ -2506,13 +2394,13 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="49"/>
       <c r="C22" s="12" t="s">
         <v>44</v>
@@ -2532,13 +2420,13 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="49"/>
       <c r="C23" s="12" t="s">
         <v>45</v>
@@ -2558,13 +2446,13 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="49"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2582,62 +2470,62 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-    </row>
-    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="46"/>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-    </row>
-    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+    </row>
+    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="17">
         <v>1</v>
       </c>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="65" t="s">
         <v>50</v>
       </c>
       <c r="K27" s="47"/>
@@ -2648,18 +2536,18 @@
       <c r="P27" s="47"/>
       <c r="Q27" s="48"/>
     </row>
-    <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="49"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="17">
         <v>2</v>
       </c>
-      <c r="J28" s="99" t="s">
+      <c r="J28" s="65" t="s">
         <v>51</v>
       </c>
       <c r="K28" s="47"/>
@@ -2670,18 +2558,18 @@
       <c r="P28" s="47"/>
       <c r="Q28" s="48"/>
     </row>
-    <row r="29" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="46"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="17">
         <v>3</v>
       </c>
-      <c r="J29" s="99" t="s">
+      <c r="J29" s="65" t="s">
         <v>52</v>
       </c>
       <c r="K29" s="47"/>
@@ -2692,106 +2580,106 @@
       <c r="P29" s="47"/>
       <c r="Q29" s="48"/>
     </row>
-    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="156" t="s">
+    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="159" t="s">
+      <c r="C30" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="160"/>
-    </row>
-    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="157"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="162"/>
-    </row>
-    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="157"/>
-      <c r="C32" s="115" t="s">
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="155"/>
+    </row>
+    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="151"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="158"/>
+    </row>
+    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="151"/>
+      <c r="C32" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="121" t="s">
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="106" t="s">
+      <c r="K32" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="103" t="s">
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="99" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="157"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="106" t="s">
+    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="151"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="109" t="s">
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="109" t="s">
+      <c r="P33" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="104"/>
-    </row>
-    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="157"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="122"/>
+      <c r="Q33" s="100"/>
+    </row>
+    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="151"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="118"/>
       <c r="K34" s="18" t="s">
         <v>62</v>
       </c>
@@ -2804,21 +2692,21 @@
       <c r="N34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O34" s="110"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="105"/>
-    </row>
-    <row r="35" spans="2:17" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="157"/>
-      <c r="C35" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="101"/>
+    </row>
+    <row r="35" spans="2:17" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="151"/>
+      <c r="C35" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="20">
         <v>1</v>
       </c>
@@ -2837,17 +2725,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:17" ht="159.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="157"/>
-      <c r="C36" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="114"/>
+    <row r="36" spans="2:17" ht="159.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="151"/>
+      <c r="C36" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="20">
         <v>2</v>
       </c>
@@ -2870,17 +2758,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="59.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="157"/>
-      <c r="C37" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="102"/>
+    <row r="37" spans="2:17" ht="59.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="151"/>
+      <c r="C37" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
       <c r="J37" s="20">
         <v>2</v>
       </c>
@@ -2903,17 +2791,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="157"/>
-      <c r="C38" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="102"/>
+    <row r="38" spans="2:17" ht="129.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="151"/>
+      <c r="C38" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="20">
         <v>2</v>
       </c>
@@ -2936,17 +2824,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="157"/>
-      <c r="C39" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="102"/>
+    <row r="39" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="151"/>
+      <c r="C39" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
       <c r="J39" s="20">
         <v>2</v>
       </c>
@@ -2969,17 +2857,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="157"/>
-      <c r="C40" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="102"/>
+    <row r="40" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="151"/>
+      <c r="C40" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="20">
         <v>1</v>
       </c>
@@ -3000,17 +2888,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="157"/>
-      <c r="C41" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="102"/>
+    <row r="41" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="151"/>
+      <c r="C41" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="98"/>
       <c r="J41" s="20">
         <v>3</v>
       </c>
@@ -3029,17 +2917,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="157"/>
-      <c r="C42" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="102"/>
+    <row r="42" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="151"/>
+      <c r="C42" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
       <c r="J42" s="20">
         <v>3</v>
       </c>
@@ -3062,31 +2950,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="157"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
+    <row r="43" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="151"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
       <c r="Q43" s="25">
         <f>SUM(Q35:Q42)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="157"/>
+    <row r="44" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="151"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -3103,59 +2991,59 @@
       <c r="P44" s="27"/>
       <c r="Q44" s="28"/>
     </row>
-    <row r="45" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="157"/>
-      <c r="C45" s="115" t="s">
+    <row r="45" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="151"/>
+      <c r="C45" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="83" t="s">
+      <c r="K45" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="125" t="s">
+      <c r="L45" s="123"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="L45" s="126"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="O45" s="126"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="83" t="s">
+      <c r="O45" s="123"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="157"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="129"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="84"/>
-    </row>
-    <row r="47" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="157"/>
+    <row r="46" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="151"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="81"/>
+    </row>
+    <row r="47" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="151"/>
       <c r="C47" s="29">
         <v>1</v>
       </c>
-      <c r="D47" s="99" t="s">
-        <v>78</v>
+      <c r="D47" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -3165,26 +3053,26 @@
       <c r="J47" s="9">
         <v>15</v>
       </c>
-      <c r="K47" s="131"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="134">
+      <c r="K47" s="128"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="131">
         <v>10</v>
       </c>
-      <c r="O47" s="134"/>
-      <c r="P47" s="134"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
       <c r="Q47" s="30">
         <f>SUM(K47:P47)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="157"/>
+    <row r="48" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="151"/>
       <c r="C48" s="31">
         <v>2</v>
       </c>
-      <c r="D48" s="99" t="s">
-        <v>95</v>
+      <c r="D48" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
@@ -3194,28 +3082,28 @@
       <c r="J48" s="9">
         <v>25</v>
       </c>
-      <c r="K48" s="131">
+      <c r="K48" s="128">
         <v>2</v>
       </c>
-      <c r="L48" s="132"/>
-      <c r="M48" s="133"/>
-      <c r="N48" s="134">
+      <c r="L48" s="129"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="131">
         <v>10</v>
       </c>
-      <c r="O48" s="134"/>
-      <c r="P48" s="134"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
       <c r="Q48" s="30">
         <f>SUM(K48:P48)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="157"/>
+    <row r="49" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="151"/>
       <c r="C49" s="25">
         <v>3</v>
       </c>
-      <c r="D49" s="99" t="s">
-        <v>79</v>
+      <c r="D49" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
@@ -3225,21 +3113,21 @@
       <c r="J49" s="9">
         <v>20</v>
       </c>
-      <c r="K49" s="131"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="135">
+      <c r="K49" s="128"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="159">
         <v>10</v>
       </c>
-      <c r="O49" s="136"/>
-      <c r="P49" s="137"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="161"/>
       <c r="Q49" s="30">
         <f>SUM(K49:P49)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="157"/>
+    <row r="50" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="151"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -3247,22 +3135,22 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
+      <c r="J50" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
       <c r="Q50" s="25">
         <f>SUM(Q47:Q49)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="157"/>
+    <row r="51" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="151"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -3279,85 +3167,85 @@
       <c r="P51" s="27"/>
       <c r="Q51" s="28"/>
     </row>
-    <row r="52" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="157"/>
-      <c r="C52" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="83" t="s">
+    <row r="52" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="151"/>
+      <c r="C52" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="K52" s="125" t="s">
+      <c r="L52" s="123"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="L52" s="126"/>
-      <c r="M52" s="127"/>
-      <c r="N52" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="O52" s="126"/>
-      <c r="P52" s="127"/>
-      <c r="Q52" s="83" t="s">
+      <c r="O52" s="123"/>
+      <c r="P52" s="124"/>
+      <c r="Q52" s="80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="157"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="84"/>
-    </row>
-    <row r="54" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="157"/>
+    <row r="53" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="151"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="127"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="81"/>
+    </row>
+    <row r="54" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="151"/>
       <c r="C54" s="25">
         <v>1</v>
       </c>
-      <c r="D54" s="150" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="150"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
+      <c r="D54" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
       <c r="J54" s="9">
         <v>40</v>
       </c>
-      <c r="K54" s="151">
+      <c r="K54" s="145">
         <v>2.5</v>
       </c>
-      <c r="L54" s="151"/>
-      <c r="M54" s="151"/>
-      <c r="N54" s="151">
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145">
         <v>9.5</v>
       </c>
-      <c r="O54" s="151"/>
-      <c r="P54" s="151"/>
+      <c r="O54" s="145"/>
+      <c r="P54" s="145"/>
       <c r="Q54" s="44">
         <f>SUM(K54:P54)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="157"/>
+    <row r="55" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="151"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -3365,32 +3253,32 @@
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
+      <c r="J55" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" s="121"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="121"/>
       <c r="Q55" s="32">
         <f>SUM(Q54:Q54)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="157"/>
-      <c r="C56" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="153"/>
-      <c r="G56" s="153"/>
-      <c r="H56" s="153"/>
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
+    <row r="56" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="151"/>
+      <c r="C56" s="146" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
       <c r="K56" s="27"/>
       <c r="L56" s="27"/>
       <c r="M56" s="27"/>
@@ -3400,41 +3288,41 @@
       <c r="Q56" s="28"/>
       <c r="R56" s="33"/>
     </row>
-    <row r="57" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="157"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
+    <row r="57" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="151"/>
+      <c r="C57" s="146"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="147"/>
       <c r="K57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="35"/>
-      <c r="O57" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="P57" s="155"/>
+      <c r="O57" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" s="149"/>
       <c r="Q57" s="17">
         <f>SUM(Q43,Q50,Q55)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="157"/>
-      <c r="C58" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
+    <row r="58" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="151"/>
+      <c r="C58" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="169"/>
+      <c r="K58" s="169"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -3445,17 +3333,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="158"/>
-      <c r="C59" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
+    <row r="59" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="152"/>
+      <c r="C59" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
       <c r="L59" s="36"/>
@@ -3465,120 +3353,120 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="40"/>
     </row>
-    <row r="60" spans="2:18" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="41">
         <v>11</v>
       </c>
-      <c r="C60" s="168" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="169"/>
+      <c r="C60" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="64"/>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
-      <c r="H60" s="170" t="s">
-        <v>87</v>
-      </c>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="142"/>
-      <c r="M60" s="142"/>
-      <c r="N60" s="142"/>
-      <c r="O60" s="142"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="143"/>
-    </row>
-    <row r="61" spans="2:18" s="43" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="138">
+      <c r="H60" s="165" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="166"/>
+      <c r="M60" s="166"/>
+      <c r="N60" s="166"/>
+      <c r="O60" s="166"/>
+      <c r="P60" s="166"/>
+      <c r="Q60" s="167"/>
+    </row>
+    <row r="61" spans="2:18" s="43" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="132">
         <v>12</v>
       </c>
-      <c r="C61" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="141" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" s="142"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="142"/>
-      <c r="M61" s="142"/>
-      <c r="N61" s="142"/>
-      <c r="O61" s="142"/>
-      <c r="P61" s="142"/>
-      <c r="Q61" s="143"/>
-    </row>
-    <row r="62" spans="2:18" s="43" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="139"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="145"/>
-      <c r="K62" s="145"/>
-      <c r="L62" s="145"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="145"/>
-      <c r="O62" s="145"/>
-      <c r="P62" s="145"/>
-      <c r="Q62" s="146"/>
-    </row>
-    <row r="63" spans="2:18" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="140"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="148"/>
-      <c r="M63" s="148"/>
-      <c r="N63" s="148"/>
-      <c r="O63" s="148"/>
-      <c r="P63" s="148"/>
-      <c r="Q63" s="149"/>
-    </row>
-    <row r="64" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="135" t="s">
+        <v>92</v>
+      </c>
+      <c r="J61" s="136"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="136"/>
+      <c r="M61" s="136"/>
+      <c r="N61" s="136"/>
+      <c r="O61" s="136"/>
+      <c r="P61" s="136"/>
+      <c r="Q61" s="137"/>
+    </row>
+    <row r="62" spans="2:18" s="43" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="133"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="139"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="140"/>
+    </row>
+    <row r="63" spans="2:18" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="134"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="141"/>
+      <c r="J63" s="142"/>
+      <c r="K63" s="142"/>
+      <c r="L63" s="142"/>
+      <c r="M63" s="142"/>
+      <c r="N63" s="142"/>
+      <c r="O63" s="142"/>
+      <c r="P63" s="142"/>
+      <c r="Q63" s="143"/>
+    </row>
+    <row r="64" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>13</v>
       </c>
-      <c r="C64" s="163" t="s">
+      <c r="C64" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="163"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="163"/>
+      <c r="G64" s="163"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="164"/>
-      <c r="E64" s="164"/>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="148"/>
-      <c r="N64" s="148"/>
-      <c r="O64" s="148"/>
-      <c r="P64" s="148"/>
-      <c r="Q64" s="149"/>
-    </row>
-    <row r="65" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.85" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J64" s="166"/>
+      <c r="K64" s="166"/>
+      <c r="L64" s="166"/>
+      <c r="M64" s="166"/>
+      <c r="N64" s="166"/>
+      <c r="O64" s="166"/>
+      <c r="P64" s="166"/>
+      <c r="Q64" s="167"/>
+    </row>
+    <row r="65" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="83">

--- a/public/syllabus/1597202710740.xlsx
+++ b/public/syllabus/1597202710740.xlsx
@@ -100,9 +100,6 @@
     <t>CLO1</t>
   </si>
   <si>
-    <t>Demonstrate knowledge of system development life cycle and understanding of quality management techniques in the life cycle.   (C2, PLO6)</t>
-  </si>
-  <si>
     <t>CLO2</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
 • How object-oriented analysis and design techniques can be used early in the life cycle.
 • How project management and quality control techniques can be applied throughout the life cycle.
 </t>
+  </si>
+  <si>
+    <t>Demonstrate knowledge of system development life cycle and understanding of quality management techniques in the life cycle. (C2, PLO6)</t>
   </si>
 </sst>
 </file>
@@ -1204,129 +1204,322 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,271 +1544,78 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1954,8 +1954,8 @@
   </sheetPr>
   <dimension ref="B2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,110 +1978,110 @@
     </row>
     <row r="3" spans="2:17" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="164"/>
     </row>
     <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="167"/>
     </row>
     <row r="8" spans="2:17" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="61"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="170"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -2090,22 +2090,22 @@
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -2114,12 +2114,12 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="152"/>
       <c r="H10" s="9">
         <v>1</v>
       </c>
@@ -2129,13 +2129,13 @@
       <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="155"/>
     </row>
     <row r="11" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -2144,23 +2144,23 @@
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="156">
         <f>ROUNDDOWN(Q58,0)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="73"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="157"/>
     </row>
     <row r="12" spans="2:17" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
@@ -2169,215 +2169,215 @@
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
+      <c r="D12" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
     </row>
     <row r="13" spans="2:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="64"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="56"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="49"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
+    </row>
+    <row r="15" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="139"/>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="139"/>
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="C17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="62"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="139"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+    </row>
+    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="139"/>
+      <c r="C19" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="76"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="79"/>
-    </row>
-    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="80" t="s">
+      <c r="D19" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85" t="s">
+      <c r="Q19" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="85" t="s">
+    </row>
+    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="139"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
     </row>
     <row r="21" spans="2:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -2385,7 +2385,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2394,19 +2394,19 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2420,23 +2420,23 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2446,14 +2446,14 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2471,242 +2471,242 @@
       <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="139"/>
+      <c r="C25" s="146" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="148"/>
+    </row>
+    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="140"/>
+      <c r="C26" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="89"/>
-    </row>
-    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="90" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="149"/>
+    </row>
+    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-    </row>
-    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="C27" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="17">
         <v>1</v>
       </c>
-      <c r="J27" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="48"/>
+      <c r="J27" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="98"/>
     </row>
     <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
       <c r="I28" s="17">
         <v>2</v>
       </c>
-      <c r="J28" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="48"/>
+      <c r="J28" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="98"/>
     </row>
     <row r="29" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="79"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="17">
         <v>3</v>
       </c>
-      <c r="J29" s="65" t="s">
+      <c r="J29" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
+    </row>
+    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-    </row>
-    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="150" t="s">
+      <c r="C30" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="90"/>
+    </row>
+    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="86"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="93"/>
+    </row>
+    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="86"/>
+      <c r="C32" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="155"/>
-    </row>
-    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="151"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="158"/>
-    </row>
-    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="151"/>
-      <c r="C32" s="108" t="s">
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="117" t="s">
+      <c r="K32" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="102" t="s">
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="99" t="s">
+    </row>
+    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="86"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="126" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="151"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="102" t="s">
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="105" t="s">
+      <c r="P33" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="105" t="s">
+      <c r="Q33" s="124"/>
+    </row>
+    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="86"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="100"/>
-    </row>
-    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="151"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="18" t="s">
+      <c r="L34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="M34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="N34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" s="106"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="101"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="125"/>
     </row>
     <row r="35" spans="2:17" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="151"/>
-      <c r="C35" s="170" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="98"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="20">
         <v>1</v>
       </c>
@@ -2726,16 +2726,16 @@
       </c>
     </row>
     <row r="36" spans="2:17" ht="159.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="151"/>
-      <c r="C36" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="122"/>
       <c r="J36" s="20">
         <v>2</v>
       </c>
@@ -2759,16 +2759,16 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="59.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="151"/>
-      <c r="C37" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="98"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="122"/>
       <c r="J37" s="20">
         <v>2</v>
       </c>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="129.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="151"/>
-      <c r="C38" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="20">
         <v>2</v>
       </c>
@@ -2825,16 +2825,16 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="151"/>
-      <c r="C39" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="98"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="122"/>
       <c r="J39" s="20">
         <v>2</v>
       </c>
@@ -2858,16 +2858,16 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="151"/>
-      <c r="C40" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="98"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="20">
         <v>1</v>
       </c>
@@ -2889,16 +2889,16 @@
       </c>
     </row>
     <row r="41" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="151"/>
-      <c r="C41" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
       <c r="J41" s="20">
         <v>3</v>
       </c>
@@ -2918,16 +2918,16 @@
       </c>
     </row>
     <row r="42" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="151"/>
-      <c r="C42" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="98"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="122"/>
       <c r="J42" s="20">
         <v>3</v>
       </c>
@@ -2951,30 +2951,30 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="151"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
       <c r="Q43" s="25">
         <f>SUM(Q35:Q42)</f>
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="151"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -2992,142 +2992,142 @@
       <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="151"/>
-      <c r="C45" s="108" t="s">
+      <c r="B45" s="86"/>
+      <c r="C45" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="80" t="s">
+      <c r="K45" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="K45" s="122" t="s">
+      <c r="L45" s="112"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="L45" s="123"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" s="123"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="80" t="s">
-        <v>58</v>
+      <c r="O45" s="112"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="94" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="151"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="127"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="81"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="95"/>
     </row>
     <row r="47" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="151"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="29">
         <v>1</v>
       </c>
-      <c r="D47" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
+      <c r="D47" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
       <c r="J47" s="9">
         <v>15</v>
       </c>
-      <c r="K47" s="128"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="131">
+      <c r="K47" s="99"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="117">
         <v>10</v>
       </c>
-      <c r="O47" s="131"/>
-      <c r="P47" s="131"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
       <c r="Q47" s="30">
         <f>SUM(K47:P47)</f>
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="151"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="31">
         <v>2</v>
       </c>
-      <c r="D48" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
+      <c r="D48" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
       <c r="J48" s="9">
         <v>25</v>
       </c>
-      <c r="K48" s="128">
+      <c r="K48" s="99">
         <v>2</v>
       </c>
-      <c r="L48" s="129"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="131">
+      <c r="L48" s="100"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="117">
         <v>10</v>
       </c>
-      <c r="O48" s="131"/>
-      <c r="P48" s="131"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
       <c r="Q48" s="30">
         <f>SUM(K48:P48)</f>
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="151"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="25">
         <v>3</v>
       </c>
-      <c r="D49" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="48"/>
+      <c r="D49" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="98"/>
       <c r="J49" s="9">
         <v>20</v>
       </c>
-      <c r="K49" s="128"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="159">
+      <c r="K49" s="99"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="102">
         <v>10</v>
       </c>
-      <c r="O49" s="160"/>
-      <c r="P49" s="161"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="104"/>
       <c r="Q49" s="30">
         <f>SUM(K49:P49)</f>
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="151"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -3135,22 +3135,22 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="121"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="121"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="121"/>
+      <c r="J50" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
       <c r="Q50" s="25">
         <f>SUM(Q47:Q49)</f>
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="151"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -3168,84 +3168,84 @@
       <c r="Q51" s="28"/>
     </row>
     <row r="52" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="151"/>
-      <c r="C52" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="80" t="s">
+      <c r="B52" s="86"/>
+      <c r="C52" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="K52" s="122" t="s">
+      <c r="L52" s="112"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="L52" s="123"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="O52" s="123"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="80" t="s">
-        <v>58</v>
+      <c r="O52" s="112"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="94" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="151"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="127"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="81"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="95"/>
     </row>
     <row r="54" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="151"/>
+      <c r="B54" s="86"/>
       <c r="C54" s="25">
         <v>1</v>
       </c>
-      <c r="D54" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
+      <c r="D54" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
       <c r="J54" s="9">
         <v>40</v>
       </c>
-      <c r="K54" s="145">
+      <c r="K54" s="79">
         <v>2.5</v>
       </c>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145">
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79">
         <v>9.5</v>
       </c>
-      <c r="O54" s="145"/>
-      <c r="P54" s="145"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
       <c r="Q54" s="44">
         <f>SUM(K54:P54)</f>
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="151"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -3253,32 +3253,32 @@
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="K55" s="121"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="121"/>
+      <c r="J55" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
       <c r="Q55" s="32">
         <f>SUM(Q54:Q54)</f>
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="151"/>
-      <c r="C56" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
       <c r="K56" s="27"/>
       <c r="L56" s="27"/>
       <c r="M56" s="27"/>
@@ -3289,40 +3289,40 @@
       <c r="R56" s="33"/>
     </row>
     <row r="57" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="151"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="147"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
       <c r="K57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="35"/>
-      <c r="O57" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="P57" s="149"/>
+      <c r="O57" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" s="84"/>
       <c r="Q57" s="17">
         <f>SUM(Q43,Q50,Q55)</f>
         <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="151"/>
-      <c r="C58" s="168" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="169"/>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169"/>
-      <c r="G58" s="169"/>
-      <c r="H58" s="169"/>
-      <c r="I58" s="169"/>
-      <c r="J58" s="169"/>
-      <c r="K58" s="169"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -3334,16 +3334,16 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="152"/>
-      <c r="C59" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
       <c r="L59" s="36"/>
@@ -3357,109 +3357,109 @@
       <c r="B60" s="41">
         <v>11</v>
       </c>
-      <c r="C60" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="64"/>
+      <c r="C60" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="56"/>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
-      <c r="H60" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="166"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="166"/>
-      <c r="P60" s="166"/>
-      <c r="Q60" s="167"/>
+      <c r="H60" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="50"/>
     </row>
     <row r="61" spans="2:18" s="43" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="132">
+      <c r="B61" s="57">
         <v>12</v>
       </c>
-      <c r="C61" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="136"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="136"/>
-      <c r="N61" s="136"/>
-      <c r="O61" s="136"/>
-      <c r="P61" s="136"/>
-      <c r="Q61" s="137"/>
+      <c r="C61" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="71"/>
     </row>
     <row r="62" spans="2:18" s="43" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="133"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="139"/>
-      <c r="K62" s="139"/>
-      <c r="L62" s="139"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="139"/>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="140"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="74"/>
     </row>
     <row r="63" spans="2:18" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="134"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="141"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142"/>
-      <c r="L63" s="142"/>
-      <c r="M63" s="142"/>
-      <c r="N63" s="142"/>
-      <c r="O63" s="142"/>
-      <c r="P63" s="142"/>
-      <c r="Q63" s="143"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="77"/>
     </row>
     <row r="64" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>13</v>
       </c>
-      <c r="C64" s="162" t="s">
+      <c r="C64" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="163"/>
-      <c r="E64" s="163"/>
-      <c r="F64" s="163"/>
-      <c r="G64" s="163"/>
-      <c r="H64" s="164"/>
-      <c r="I64" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="J64" s="166"/>
-      <c r="K64" s="166"/>
-      <c r="L64" s="166"/>
-      <c r="M64" s="166"/>
-      <c r="N64" s="166"/>
-      <c r="O64" s="166"/>
-      <c r="P64" s="166"/>
-      <c r="Q64" s="167"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="50"/>
     </row>
     <row r="65" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3470,12 +3470,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="83">
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:Q64"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:Q8"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C17:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:H29"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="C45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:M46"/>
+    <mergeCell ref="N45:P46"/>
+    <mergeCell ref="C52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:M53"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="C61:H63"/>
     <mergeCell ref="I61:Q63"/>
@@ -3492,67 +3547,12 @@
     <mergeCell ref="K49:M49"/>
     <mergeCell ref="N49:P49"/>
     <mergeCell ref="J50:P50"/>
-    <mergeCell ref="C52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:M53"/>
-    <mergeCell ref="N52:P53"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="C45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:M46"/>
-    <mergeCell ref="N45:P46"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:H29"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C17:Q18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="D9:Q9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:Q8"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="I64:Q64"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="H60:Q60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'FORM'!A1" display="Back"/>

--- a/public/syllabus/1597202710740.xlsx
+++ b/public/syllabus/1597202710740.xlsx
@@ -103,9 +103,6 @@
     <t>CLO2</t>
   </si>
   <si>
-    <t>Apply Standard Unified Modeling Language (UML) notation to create requirement artifacts.  (C3, PLO1)</t>
-  </si>
-  <si>
     <t>CLO3</t>
   </si>
   <si>
@@ -490,7 +487,10 @@
 </t>
   </si>
   <si>
-    <t>Demonstrate knowledge of system development life cycle and understanding of quality management techniques in the life cycle. (C2, PLO6)</t>
+    <t>Demonstrate knowledge of system development life cycle and understanding of quality management techniques in the life cycle. (C2, PLO1)</t>
+  </si>
+  <si>
+    <t>Apply Standard Unified Modeling Language (UML) notation to create requirement artifacts.  (C3, PLO6)</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1204,394 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1230,394 +1618,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1954,8 +1954,8 @@
   </sheetPr>
   <dimension ref="B2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,110 +1978,110 @@
     </row>
     <row r="3" spans="2:17" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="140"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="164"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
     </row>
     <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="139"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="167"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
     </row>
     <row r="8" spans="2:17" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="140"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="170"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="61"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -2090,22 +2090,22 @@
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -2114,12 +2114,12 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="152"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="9">
         <v>1</v>
       </c>
@@ -2129,13 +2129,13 @@
       <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="155"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
     </row>
     <row r="11" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
@@ -2144,23 +2144,23 @@
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="156">
+      <c r="D11" s="72">
         <f>ROUNDDOWN(Q58,0)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="157"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
     </row>
     <row r="12" spans="2:17" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
@@ -2169,215 +2169,215 @@
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="98"/>
+      <c r="D12" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="2:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="56"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="64"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+      <c r="D14" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="139"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49"/>
+      <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="139"/>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
-    </row>
-    <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="138" t="s">
+      <c r="C17" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="49"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
+    </row>
+    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="49"/>
+      <c r="C19" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="139"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-    </row>
-    <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="139"/>
-      <c r="C19" s="94" t="s">
+      <c r="D19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="144" t="s">
+      <c r="Q19" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="144" t="s">
+    </row>
+    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="139"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="2:17" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="139"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -2385,7 +2385,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2394,19 +2394,19 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="139"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2420,23 +2420,23 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="139"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2446,14 +2446,14 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="139"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2471,242 +2471,242 @@
       <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="139"/>
-      <c r="C25" s="146" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="46"/>
+      <c r="C26" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="148"/>
-    </row>
-    <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="140"/>
-      <c r="C26" s="53" t="s">
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+    </row>
+    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="149"/>
-    </row>
-    <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="138" t="s">
+      <c r="C27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="17">
         <v>1</v>
       </c>
-      <c r="J27" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="98"/>
+      <c r="J27" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="139"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="17">
         <v>2</v>
       </c>
-      <c r="J28" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="98"/>
+      <c r="J28" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="140"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="17">
         <v>3</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="98"/>
-    </row>
-    <row r="30" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="85" t="s">
+      <c r="C30" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="156"/>
+    </row>
+    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="152"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="159"/>
+    </row>
+    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="152"/>
+      <c r="C32" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="90"/>
-    </row>
-    <row r="31" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="86"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="93"/>
-    </row>
-    <row r="32" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="86"/>
-      <c r="C32" s="105" t="s">
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="136" t="s">
+      <c r="K32" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="126" t="s">
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="123" t="s">
+    </row>
+    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="152"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="102" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="86"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="126" t="s">
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="129" t="s">
+      <c r="P33" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="P33" s="129" t="s">
+      <c r="Q33" s="100"/>
+    </row>
+    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="152"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q33" s="124"/>
-    </row>
-    <row r="34" spans="2:17" ht="64.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="86"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="18" t="s">
+      <c r="L34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="M34" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="N34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="130"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="125"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="101"/>
     </row>
     <row r="35" spans="2:17" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="86"/>
-      <c r="C35" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="122"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="20">
         <v>1</v>
       </c>
@@ -2726,16 +2726,16 @@
       </c>
     </row>
     <row r="36" spans="2:17" ht="159.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="86"/>
-      <c r="C36" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="122"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="20">
         <v>2</v>
       </c>
@@ -2759,16 +2759,16 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="59.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
-      <c r="C37" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="122"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
       <c r="J37" s="20">
         <v>2</v>
       </c>
@@ -2792,16 +2792,16 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="129.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="86"/>
-      <c r="C38" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="20">
         <v>2</v>
       </c>
@@ -2825,16 +2825,16 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="86"/>
-      <c r="C39" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
       <c r="J39" s="20">
         <v>2</v>
       </c>
@@ -2858,16 +2858,16 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="86"/>
-      <c r="C40" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="20">
         <v>1</v>
       </c>
@@ -2889,16 +2889,16 @@
       </c>
     </row>
     <row r="41" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="86"/>
-      <c r="C41" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="98"/>
       <c r="J41" s="20">
         <v>3</v>
       </c>
@@ -2918,16 +2918,16 @@
       </c>
     </row>
     <row r="42" spans="2:17" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="86"/>
-      <c r="C42" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="122"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
       <c r="J42" s="20">
         <v>3</v>
       </c>
@@ -2951,30 +2951,30 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="86"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
       <c r="Q43" s="25">
         <f>SUM(Q35:Q42)</f>
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="86"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -2992,142 +2992,142 @@
       <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="86"/>
-      <c r="C45" s="105" t="s">
+      <c r="B45" s="152"/>
+      <c r="C45" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="94" t="s">
+      <c r="K45" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="111" t="s">
+      <c r="L45" s="124"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="112"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="O45" s="112"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="94" t="s">
-        <v>57</v>
+      <c r="O45" s="124"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="80" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="86"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="115"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="95"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="81"/>
     </row>
     <row r="47" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="86"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="29">
         <v>1</v>
       </c>
-      <c r="D47" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
+      <c r="D47" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
       <c r="J47" s="9">
         <v>15</v>
       </c>
-      <c r="K47" s="99"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="117">
+      <c r="K47" s="129"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="132">
         <v>10</v>
       </c>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
       <c r="Q47" s="30">
         <f>SUM(K47:P47)</f>
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="86"/>
+      <c r="B48" s="152"/>
       <c r="C48" s="31">
         <v>2</v>
       </c>
-      <c r="D48" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
+      <c r="D48" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
       <c r="J48" s="9">
         <v>25</v>
       </c>
-      <c r="K48" s="99">
+      <c r="K48" s="129">
         <v>2</v>
       </c>
-      <c r="L48" s="100"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="117">
+      <c r="L48" s="130"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="132">
         <v>10</v>
       </c>
-      <c r="O48" s="117"/>
-      <c r="P48" s="117"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="132"/>
       <c r="Q48" s="30">
         <f>SUM(K48:P48)</f>
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="86"/>
+      <c r="B49" s="152"/>
       <c r="C49" s="25">
         <v>3</v>
       </c>
-      <c r="D49" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="98"/>
+      <c r="D49" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="9">
         <v>20</v>
       </c>
-      <c r="K49" s="99"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="102">
+      <c r="K49" s="129"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="160">
         <v>10</v>
       </c>
-      <c r="O49" s="103"/>
-      <c r="P49" s="104"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="162"/>
       <c r="Q49" s="30">
         <f>SUM(K49:P49)</f>
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="86"/>
+      <c r="B50" s="152"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -3135,22 +3135,22 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
+      <c r="J50" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
       <c r="Q50" s="25">
         <f>SUM(Q47:Q49)</f>
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="86"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -3168,84 +3168,84 @@
       <c r="Q51" s="28"/>
     </row>
     <row r="52" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="86"/>
-      <c r="C52" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="94" t="s">
+      <c r="B52" s="152"/>
+      <c r="C52" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="111" t="s">
+      <c r="L52" s="124"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="L52" s="112"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="O52" s="112"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="94" t="s">
-        <v>57</v>
+      <c r="O52" s="124"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="80" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="86"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="114"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="114"/>
-      <c r="O53" s="115"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="95"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="127"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="81"/>
     </row>
     <row r="54" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="86"/>
+      <c r="B54" s="152"/>
       <c r="C54" s="25">
         <v>1</v>
       </c>
-      <c r="D54" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
+      <c r="D54" s="145" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
       <c r="J54" s="9">
         <v>40</v>
       </c>
-      <c r="K54" s="79">
+      <c r="K54" s="146">
         <v>2.5</v>
       </c>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79">
+      <c r="L54" s="146"/>
+      <c r="M54" s="146"/>
+      <c r="N54" s="146">
         <v>9.5</v>
       </c>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
+      <c r="O54" s="146"/>
+      <c r="P54" s="146"/>
       <c r="Q54" s="44">
         <f>SUM(K54:P54)</f>
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="86"/>
+      <c r="B55" s="152"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -3253,32 +3253,32 @@
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
+      <c r="J55" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122"/>
+      <c r="P55" s="122"/>
       <c r="Q55" s="32">
         <f>SUM(Q54:Q54)</f>
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="86"/>
-      <c r="C56" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
       <c r="K56" s="27"/>
       <c r="L56" s="27"/>
       <c r="M56" s="27"/>
@@ -3289,40 +3289,40 @@
       <c r="R56" s="33"/>
     </row>
     <row r="57" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="86"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
       <c r="K57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="35"/>
-      <c r="O57" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="P57" s="84"/>
+      <c r="O57" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="150"/>
       <c r="Q57" s="17">
         <f>SUM(Q43,Q50,Q55)</f>
         <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="86"/>
-      <c r="C58" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="169" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="170"/>
+      <c r="E58" s="170"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -3334,16 +3334,16 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="87"/>
-      <c r="C59" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
       <c r="L59" s="36"/>
@@ -3357,109 +3357,109 @@
       <c r="B60" s="41">
         <v>11</v>
       </c>
-      <c r="C60" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="56"/>
+      <c r="C60" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="64"/>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
-      <c r="H60" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="50"/>
+      <c r="H60" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="167"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="167"/>
+      <c r="P60" s="167"/>
+      <c r="Q60" s="168"/>
     </row>
     <row r="61" spans="2:18" s="43" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="57">
+      <c r="B61" s="133">
         <v>12</v>
       </c>
-      <c r="C61" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="71"/>
+      <c r="C61" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
+      <c r="O61" s="137"/>
+      <c r="P61" s="137"/>
+      <c r="Q61" s="138"/>
     </row>
     <row r="62" spans="2:18" s="43" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="58"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="74"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="140"/>
+      <c r="O62" s="140"/>
+      <c r="P62" s="140"/>
+      <c r="Q62" s="141"/>
     </row>
     <row r="63" spans="2:18" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="59"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="77"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="143"/>
+      <c r="K63" s="143"/>
+      <c r="L63" s="143"/>
+      <c r="M63" s="143"/>
+      <c r="N63" s="143"/>
+      <c r="O63" s="143"/>
+      <c r="P63" s="143"/>
+      <c r="Q63" s="144"/>
     </row>
     <row r="64" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41">
         <v>13</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="164"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="164"/>
+      <c r="G64" s="164"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="50"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="167"/>
+      <c r="L64" s="167"/>
+      <c r="M64" s="167"/>
+      <c r="N64" s="167"/>
+      <c r="O64" s="167"/>
+      <c r="P64" s="167"/>
+      <c r="Q64" s="168"/>
     </row>
     <row r="65" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.85" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3470,67 +3470,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="83">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:Q8"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="D16:Q16"/>
-    <mergeCell ref="D9:Q9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C17:Q18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:H29"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="C45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:M46"/>
-    <mergeCell ref="N45:P46"/>
-    <mergeCell ref="C52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:M53"/>
-    <mergeCell ref="N52:P53"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="I64:Q64"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="H60:Q60"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="C61:H63"/>
     <mergeCell ref="I61:Q63"/>
@@ -3547,12 +3492,67 @@
     <mergeCell ref="K49:M49"/>
     <mergeCell ref="N49:P49"/>
     <mergeCell ref="J50:P50"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:Q64"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="C52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:M53"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="C45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:M46"/>
+    <mergeCell ref="N45:P46"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:H29"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C17:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:Q4"/>
+    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:Q8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'FORM'!A1" display="Back"/>
@@ -3562,24 +3562,18 @@
   <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H10</xm:sqref>
+          <xm:sqref>J10 H10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D22:O25</xm:sqref>
+          <xm:sqref>D22:O25 N79</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
@@ -3587,12 +3581,6 @@
           </x14:formula1>
           <xm:sqref>J29:Q31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\D\DCS\Syllabus CS - (New, 2017)\Dr. Sim\[simhiewmoitable4A&amp;8297.xlsm]Data'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N79</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
